--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mcam-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mcam-Mcam.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>58.08855766666665</v>
+        <v>144.2773156666667</v>
       </c>
       <c r="H2">
-        <v>174.265673</v>
+        <v>432.831947</v>
       </c>
       <c r="I2">
-        <v>0.6238997925964108</v>
+        <v>0.8052971554812057</v>
       </c>
       <c r="J2">
-        <v>0.6238997925964107</v>
+        <v>0.8052971554812056</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.08855766666665</v>
+        <v>144.2773156666667</v>
       </c>
       <c r="N2">
-        <v>174.265673</v>
+        <v>432.831947</v>
       </c>
       <c r="O2">
-        <v>0.6238997925964108</v>
+        <v>0.8052971554812057</v>
       </c>
       <c r="P2">
-        <v>0.6238997925964107</v>
+        <v>0.8052971554812056</v>
       </c>
       <c r="Q2">
-        <v>3374.280531793657</v>
+        <v>20815.94381597898</v>
       </c>
       <c r="R2">
-        <v>30368.52478614292</v>
+        <v>187343.4943438108</v>
       </c>
       <c r="S2">
-        <v>0.3892509512018444</v>
+        <v>0.6485035086261213</v>
       </c>
       <c r="T2">
-        <v>0.3892509512018443</v>
+        <v>0.6485035086261211</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>58.08855766666665</v>
+        <v>144.2773156666667</v>
       </c>
       <c r="H3">
-        <v>174.265673</v>
+        <v>432.831947</v>
       </c>
       <c r="I3">
-        <v>0.6238997925964108</v>
+        <v>0.8052971554812057</v>
       </c>
       <c r="J3">
-        <v>0.6238997925964107</v>
+        <v>0.8052971554812056</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.450001</v>
       </c>
       <c r="O3">
-        <v>0.01593173602786259</v>
+        <v>0.0082793637854752</v>
       </c>
       <c r="P3">
-        <v>0.01593173602786259</v>
+        <v>0.008279363785475198</v>
       </c>
       <c r="Q3">
-        <v>86.16471323507476</v>
+        <v>214.0113996646608</v>
       </c>
       <c r="R3">
-        <v>775.4824191156729</v>
+        <v>1926.102596981947</v>
       </c>
       <c r="S3">
-        <v>0.009939806803484238</v>
+        <v>0.006667348105637286</v>
       </c>
       <c r="T3">
-        <v>0.009939806803484233</v>
+        <v>0.006667348105637284</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>58.08855766666665</v>
+        <v>144.2773156666667</v>
       </c>
       <c r="H4">
-        <v>174.265673</v>
+        <v>432.831947</v>
       </c>
       <c r="I4">
-        <v>0.6238997925964108</v>
+        <v>0.8052971554812057</v>
       </c>
       <c r="J4">
-        <v>0.6238997925964107</v>
+        <v>0.8052971554812056</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2805873333333334</v>
+        <v>0.5156256666666666</v>
       </c>
       <c r="N4">
-        <v>0.8417620000000001</v>
+        <v>1.546877</v>
       </c>
       <c r="O4">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364554</v>
       </c>
       <c r="P4">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364553</v>
       </c>
       <c r="Q4">
-        <v>16.29891349286955</v>
+        <v>74.39308707550211</v>
       </c>
       <c r="R4">
-        <v>146.690221435826</v>
+        <v>669.5377836795191</v>
       </c>
       <c r="S4">
-        <v>0.001880213432427206</v>
+        <v>0.002317655082685125</v>
       </c>
       <c r="T4">
-        <v>0.001880213432427205</v>
+        <v>0.002317655082685124</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>58.08855766666665</v>
+        <v>144.2773156666667</v>
       </c>
       <c r="H5">
-        <v>174.265673</v>
+        <v>432.831947</v>
       </c>
       <c r="I5">
-        <v>0.6238997925964108</v>
+        <v>0.8052971554812057</v>
       </c>
       <c r="J5">
-        <v>0.6238997925964107</v>
+        <v>0.8052971554812056</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.78019966666666</v>
+        <v>30.00245966666667</v>
       </c>
       <c r="N5">
-        <v>92.340599</v>
+        <v>90.007379</v>
       </c>
       <c r="O5">
-        <v>0.3305945432198133</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="P5">
-        <v>0.3305945432198132</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="Q5">
-        <v>1787.97740332868</v>
+        <v>4328.674344104102</v>
       </c>
       <c r="R5">
-        <v>16091.79662995812</v>
+        <v>38958.06909693692</v>
       </c>
       <c r="S5">
-        <v>0.2062578669483467</v>
+        <v>0.1348562680927549</v>
       </c>
       <c r="T5">
-        <v>0.2062578669483466</v>
+        <v>0.1348562680927548</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>58.08855766666665</v>
+        <v>144.2773156666667</v>
       </c>
       <c r="H6">
-        <v>174.265673</v>
+        <v>432.831947</v>
       </c>
       <c r="I6">
-        <v>0.6238997925964108</v>
+        <v>0.8052971554812057</v>
       </c>
       <c r="J6">
-        <v>0.6238997925964107</v>
+        <v>0.8052971554812056</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.844971</v>
+        <v>2.189762333333333</v>
       </c>
       <c r="N6">
-        <v>5.534913</v>
+        <v>6.569287</v>
       </c>
       <c r="O6">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="P6">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="Q6">
-        <v>107.1717043268276</v>
+        <v>315.9330314013099</v>
       </c>
       <c r="R6">
-        <v>964.5453389414487</v>
+        <v>2843.397282611789</v>
       </c>
       <c r="S6">
-        <v>0.01236313562493432</v>
+        <v>0.009842632222967511</v>
       </c>
       <c r="T6">
-        <v>0.01236313562493432</v>
+        <v>0.00984263222296751</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>58.08855766666665</v>
+        <v>144.2773156666667</v>
       </c>
       <c r="H7">
-        <v>174.265673</v>
+        <v>432.831947</v>
       </c>
       <c r="I7">
-        <v>0.6238997925964108</v>
+        <v>0.8052971554812057</v>
       </c>
       <c r="J7">
-        <v>0.6238997925964107</v>
+        <v>0.8052971554812056</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6279396666666667</v>
+        <v>0.6918473333333334</v>
       </c>
       <c r="N7">
-        <v>1.883819</v>
+        <v>2.075542</v>
       </c>
       <c r="O7">
-        <v>0.00674438208716629</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="P7">
-        <v>0.006744382087166289</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="Q7">
-        <v>36.4761095383541</v>
+        <v>99.81787610447491</v>
       </c>
       <c r="R7">
-        <v>328.2849858451869</v>
+        <v>898.360884940274</v>
       </c>
       <c r="S7">
-        <v>0.004207818585373997</v>
+        <v>0.003109743351039836</v>
       </c>
       <c r="T7">
-        <v>0.004207818585373995</v>
+        <v>0.003109743351039836</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4.450001</v>
       </c>
       <c r="I8">
-        <v>0.01593173602786259</v>
+        <v>0.0082793637854752</v>
       </c>
       <c r="J8">
-        <v>0.01593173602786259</v>
+        <v>0.008279363785475198</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>58.08855766666665</v>
+        <v>144.2773156666667</v>
       </c>
       <c r="N8">
-        <v>174.265673</v>
+        <v>432.831947</v>
       </c>
       <c r="O8">
-        <v>0.6238997925964108</v>
+        <v>0.8052971554812057</v>
       </c>
       <c r="P8">
-        <v>0.6238997925964107</v>
+        <v>0.8052971554812056</v>
       </c>
       <c r="Q8">
-        <v>86.16471323507476</v>
+        <v>214.0113996646608</v>
       </c>
       <c r="R8">
-        <v>775.4824191156729</v>
+        <v>1926.102596981947</v>
       </c>
       <c r="S8">
-        <v>0.009939806803484238</v>
+        <v>0.006667348105637286</v>
       </c>
       <c r="T8">
-        <v>0.009939806803484233</v>
+        <v>0.006667348105637284</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4.450001</v>
       </c>
       <c r="I9">
-        <v>0.01593173602786259</v>
+        <v>0.0082793637854752</v>
       </c>
       <c r="J9">
-        <v>0.01593173602786259</v>
+        <v>0.008279363785475198</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,10 +998,10 @@
         <v>4.450001</v>
       </c>
       <c r="O9">
-        <v>0.01593173602786259</v>
+        <v>0.0082793637854752</v>
       </c>
       <c r="P9">
-        <v>0.01593173602786259</v>
+        <v>0.008279363785475198</v>
       </c>
       <c r="Q9">
         <v>2.200278766666778</v>
@@ -1010,10 +1010,10 @@
         <v>19.802508900001</v>
       </c>
       <c r="S9">
-        <v>0.000253820212861495</v>
+        <v>6.854786469223824E-05</v>
       </c>
       <c r="T9">
-        <v>0.0002538202128614948</v>
+        <v>6.85478646922382E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>4.450001</v>
       </c>
       <c r="I10">
-        <v>0.01593173602786259</v>
+        <v>0.0082793637854752</v>
       </c>
       <c r="J10">
-        <v>0.01593173602786259</v>
+        <v>0.008279363785475198</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2805873333333334</v>
+        <v>0.5156256666666666</v>
       </c>
       <c r="N10">
-        <v>0.8417620000000001</v>
+        <v>1.546877</v>
       </c>
       <c r="O10">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364554</v>
       </c>
       <c r="P10">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364553</v>
       </c>
       <c r="Q10">
-        <v>0.4162046379735556</v>
+        <v>0.7648449107641111</v>
       </c>
       <c r="R10">
-        <v>3.745841741762001</v>
+        <v>6.883604196877001</v>
       </c>
       <c r="S10">
-        <v>4.801262067552743E-05</v>
+        <v>2.382811044121909E-05</v>
       </c>
       <c r="T10">
-        <v>4.801262067552741E-05</v>
+        <v>2.382811044121908E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4.450001</v>
       </c>
       <c r="I11">
-        <v>0.01593173602786259</v>
+        <v>0.0082793637854752</v>
       </c>
       <c r="J11">
-        <v>0.01593173602786259</v>
+        <v>0.008279363785475198</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.78019966666666</v>
+        <v>30.00245966666667</v>
       </c>
       <c r="N11">
-        <v>92.340599</v>
+        <v>90.007379</v>
       </c>
       <c r="O11">
-        <v>0.3305945432198133</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="P11">
-        <v>0.3305945432198132</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="Q11">
-        <v>45.65730643228878</v>
+        <v>44.50365850637544</v>
       </c>
       <c r="R11">
-        <v>410.915757890599</v>
+        <v>400.532926557379</v>
       </c>
       <c r="S11">
-        <v>0.005266944994829876</v>
+        <v>0.001386474663038279</v>
       </c>
       <c r="T11">
-        <v>0.005266944994829875</v>
+        <v>0.001386474663038279</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,10 +1166,10 @@
         <v>4.450001</v>
       </c>
       <c r="I12">
-        <v>0.01593173602786259</v>
+        <v>0.0082793637854752</v>
       </c>
       <c r="J12">
-        <v>0.01593173602786259</v>
+        <v>0.008279363785475198</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.844971</v>
+        <v>2.189762333333333</v>
       </c>
       <c r="N12">
-        <v>5.534913</v>
+        <v>6.569287</v>
       </c>
       <c r="O12">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="P12">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="Q12">
-        <v>2.736707598323667</v>
+        <v>3.248148191031889</v>
       </c>
       <c r="R12">
-        <v>24.630368384913</v>
+        <v>29.233333719287</v>
       </c>
       <c r="S12">
-        <v>0.0003157016809276796</v>
+        <v>0.0001011933697094629</v>
       </c>
       <c r="T12">
-        <v>0.0003157016809276795</v>
+        <v>0.0001011933697094629</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,10 +1228,10 @@
         <v>4.450001</v>
       </c>
       <c r="I13">
-        <v>0.01593173602786259</v>
+        <v>0.0082793637854752</v>
       </c>
       <c r="J13">
-        <v>0.01593173602786259</v>
+        <v>0.008279363785475198</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6279396666666667</v>
+        <v>0.6918473333333334</v>
       </c>
       <c r="N13">
-        <v>1.883819</v>
+        <v>2.075542</v>
       </c>
       <c r="O13">
-        <v>0.00674438208716629</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="P13">
-        <v>0.006744382087166289</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="Q13">
-        <v>0.9314440482021112</v>
+        <v>1.026240441726889</v>
       </c>
       <c r="R13">
-        <v>8.382996433819001</v>
+        <v>9.236163975542</v>
       </c>
       <c r="S13">
-        <v>0.0001074497150837783</v>
+        <v>3.197167195671586E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001074497150837782</v>
+        <v>3.197167195671584E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2805873333333334</v>
+        <v>0.5156256666666666</v>
       </c>
       <c r="H14">
-        <v>0.8417620000000001</v>
+        <v>1.546877</v>
       </c>
       <c r="I14">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364554</v>
       </c>
       <c r="J14">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364553</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>58.08855766666665</v>
+        <v>144.2773156666667</v>
       </c>
       <c r="N14">
-        <v>174.265673</v>
+        <v>432.831947</v>
       </c>
       <c r="O14">
-        <v>0.6238997925964108</v>
+        <v>0.8052971554812057</v>
       </c>
       <c r="P14">
-        <v>0.6238997925964107</v>
+        <v>0.8052971554812056</v>
       </c>
       <c r="Q14">
-        <v>16.29891349286955</v>
+        <v>74.39308707550211</v>
       </c>
       <c r="R14">
-        <v>146.690221435826</v>
+        <v>669.5377836795191</v>
       </c>
       <c r="S14">
-        <v>0.001880213432427206</v>
+        <v>0.002317655082685125</v>
       </c>
       <c r="T14">
-        <v>0.001880213432427205</v>
+        <v>0.002317655082685124</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2805873333333334</v>
+        <v>0.5156256666666666</v>
       </c>
       <c r="H15">
-        <v>0.8417620000000001</v>
+        <v>1.546877</v>
       </c>
       <c r="I15">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364554</v>
       </c>
       <c r="J15">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364553</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>4.450001</v>
       </c>
       <c r="O15">
-        <v>0.01593173602786259</v>
+        <v>0.0082793637854752</v>
       </c>
       <c r="P15">
-        <v>0.01593173602786259</v>
+        <v>0.008279363785475198</v>
       </c>
       <c r="Q15">
-        <v>0.4162046379735556</v>
+        <v>0.7648449107641111</v>
       </c>
       <c r="R15">
-        <v>3.745841741762001</v>
+        <v>6.883604196877001</v>
       </c>
       <c r="S15">
-        <v>4.801262067552743E-05</v>
+        <v>2.382811044121909E-05</v>
       </c>
       <c r="T15">
-        <v>4.801262067552741E-05</v>
+        <v>2.382811044121908E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2805873333333334</v>
+        <v>0.5156256666666666</v>
       </c>
       <c r="H16">
-        <v>0.8417620000000001</v>
+        <v>1.546877</v>
       </c>
       <c r="I16">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364554</v>
       </c>
       <c r="J16">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364553</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2805873333333334</v>
+        <v>0.5156256666666666</v>
       </c>
       <c r="N16">
-        <v>0.8417620000000001</v>
+        <v>1.546877</v>
       </c>
       <c r="O16">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364554</v>
       </c>
       <c r="P16">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364553</v>
       </c>
       <c r="Q16">
-        <v>0.07872925162711113</v>
+        <v>0.2658698281254444</v>
       </c>
       <c r="R16">
-        <v>0.7085632646440002</v>
+        <v>2.392828453129</v>
       </c>
       <c r="S16">
-        <v>9.08206528606922E-06</v>
+        <v>8.282954542028566E-06</v>
       </c>
       <c r="T16">
-        <v>9.082065286069218E-06</v>
+        <v>8.282954542028563E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2805873333333334</v>
+        <v>0.5156256666666666</v>
       </c>
       <c r="H17">
-        <v>0.8417620000000001</v>
+        <v>1.546877</v>
       </c>
       <c r="I17">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364554</v>
       </c>
       <c r="J17">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364553</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.78019966666666</v>
+        <v>30.00245966666667</v>
       </c>
       <c r="N17">
-        <v>92.340599</v>
+        <v>90.007379</v>
       </c>
       <c r="O17">
-        <v>0.3305945432198133</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="P17">
-        <v>0.3305945432198132</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="Q17">
-        <v>8.636534143937556</v>
+        <v>15.47003826726478</v>
       </c>
       <c r="R17">
-        <v>77.728807295438</v>
+        <v>139.230344405383</v>
       </c>
       <c r="S17">
-        <v>0.0009962950913354821</v>
+        <v>0.0004819562439057123</v>
       </c>
       <c r="T17">
-        <v>0.0009962950913354818</v>
+        <v>0.0004819562439057122</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2805873333333334</v>
+        <v>0.5156256666666666</v>
       </c>
       <c r="H18">
-        <v>0.8417620000000001</v>
+        <v>1.546877</v>
       </c>
       <c r="I18">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364554</v>
       </c>
       <c r="J18">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364553</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.844971</v>
+        <v>2.189762333333333</v>
       </c>
       <c r="N18">
-        <v>5.534913</v>
+        <v>6.569287</v>
       </c>
       <c r="O18">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="P18">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="Q18">
-        <v>0.5176754929673334</v>
+        <v>1.129097662966555</v>
       </c>
       <c r="R18">
-        <v>4.659079436706</v>
+        <v>10.161878966699</v>
       </c>
       <c r="S18">
-        <v>5.971811654447841E-05</v>
+        <v>3.517610359100253E-05</v>
       </c>
       <c r="T18">
-        <v>5.971811654447839E-05</v>
+        <v>3.517610359100251E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2805873333333334</v>
+        <v>0.5156256666666666</v>
       </c>
       <c r="H19">
-        <v>0.8417620000000001</v>
+        <v>1.546877</v>
       </c>
       <c r="I19">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364554</v>
       </c>
       <c r="J19">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364553</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6279396666666667</v>
+        <v>0.6918473333333334</v>
       </c>
       <c r="N19">
-        <v>1.883819</v>
+        <v>2.075542</v>
       </c>
       <c r="O19">
-        <v>0.00674438208716629</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="P19">
-        <v>0.006744382087166289</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="Q19">
-        <v>0.1761919165642222</v>
+        <v>0.3567342424815556</v>
       </c>
       <c r="R19">
-        <v>1.585727249078</v>
+        <v>3.210608182334</v>
       </c>
       <c r="S19">
-        <v>2.032518353779053E-05</v>
+        <v>1.111376019946709E-05</v>
       </c>
       <c r="T19">
-        <v>2.032518353779052E-05</v>
+        <v>1.111376019946709E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.78019966666666</v>
+        <v>30.00245966666667</v>
       </c>
       <c r="H20">
-        <v>92.340599</v>
+        <v>90.007379</v>
       </c>
       <c r="I20">
-        <v>0.3305945432198133</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="J20">
-        <v>0.3305945432198132</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>58.08855766666665</v>
+        <v>144.2773156666667</v>
       </c>
       <c r="N20">
-        <v>174.265673</v>
+        <v>432.831947</v>
       </c>
       <c r="O20">
-        <v>0.6238997925964108</v>
+        <v>0.8052971554812057</v>
       </c>
       <c r="P20">
-        <v>0.6238997925964107</v>
+        <v>0.8052971554812056</v>
       </c>
       <c r="Q20">
-        <v>1787.97740332868</v>
+        <v>4328.674344104102</v>
       </c>
       <c r="R20">
-        <v>16091.79662995812</v>
+        <v>38958.06909693692</v>
       </c>
       <c r="S20">
-        <v>0.2062578669483467</v>
+        <v>0.1348562680927549</v>
       </c>
       <c r="T20">
-        <v>0.2062578669483466</v>
+        <v>0.1348562680927548</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.78019966666666</v>
+        <v>30.00245966666667</v>
       </c>
       <c r="H21">
-        <v>92.340599</v>
+        <v>90.007379</v>
       </c>
       <c r="I21">
-        <v>0.3305945432198133</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="J21">
-        <v>0.3305945432198132</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,22 +1742,22 @@
         <v>4.450001</v>
       </c>
       <c r="O21">
-        <v>0.01593173602786259</v>
+        <v>0.0082793637854752</v>
       </c>
       <c r="P21">
-        <v>0.01593173602786259</v>
+        <v>0.008279363785475198</v>
       </c>
       <c r="Q21">
-        <v>45.65730643228878</v>
+        <v>44.50365850637544</v>
       </c>
       <c r="R21">
-        <v>410.915757890599</v>
+        <v>400.532926557379</v>
       </c>
       <c r="S21">
-        <v>0.005266944994829876</v>
+        <v>0.001386474663038279</v>
       </c>
       <c r="T21">
-        <v>0.005266944994829875</v>
+        <v>0.001386474663038279</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.78019966666666</v>
+        <v>30.00245966666667</v>
       </c>
       <c r="H22">
-        <v>92.340599</v>
+        <v>90.007379</v>
       </c>
       <c r="I22">
-        <v>0.3305945432198133</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="J22">
-        <v>0.3305945432198132</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2805873333333334</v>
+        <v>0.5156256666666666</v>
       </c>
       <c r="N22">
-        <v>0.8417620000000001</v>
+        <v>1.546877</v>
       </c>
       <c r="O22">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364554</v>
       </c>
       <c r="P22">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364553</v>
       </c>
       <c r="Q22">
-        <v>8.636534143937556</v>
+        <v>15.47003826726478</v>
       </c>
       <c r="R22">
-        <v>77.728807295438</v>
+        <v>139.230344405383</v>
       </c>
       <c r="S22">
-        <v>0.0009962950913354821</v>
+        <v>0.0004819562439057123</v>
       </c>
       <c r="T22">
-        <v>0.0009962950913354818</v>
+        <v>0.0004819562439057122</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.78019966666666</v>
+        <v>30.00245966666667</v>
       </c>
       <c r="H23">
-        <v>92.340599</v>
+        <v>90.007379</v>
       </c>
       <c r="I23">
-        <v>0.3305945432198133</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="J23">
-        <v>0.3305945432198132</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>30.78019966666666</v>
+        <v>30.00245966666667</v>
       </c>
       <c r="N23">
-        <v>92.340599</v>
+        <v>90.007379</v>
       </c>
       <c r="O23">
-        <v>0.3305945432198133</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="P23">
-        <v>0.3305945432198132</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="Q23">
-        <v>947.4206915198666</v>
+        <v>900.1475860499601</v>
       </c>
       <c r="R23">
-        <v>8526.786223678801</v>
+        <v>8101.328274449641</v>
       </c>
       <c r="S23">
-        <v>0.109292752006717</v>
+        <v>0.02804335335429895</v>
       </c>
       <c r="T23">
-        <v>0.109292752006717</v>
+        <v>0.02804335335429894</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.78019966666666</v>
+        <v>30.00245966666667</v>
       </c>
       <c r="H24">
-        <v>92.340599</v>
+        <v>90.007379</v>
       </c>
       <c r="I24">
-        <v>0.3305945432198133</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="J24">
-        <v>0.3305945432198132</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.844971</v>
+        <v>2.189762333333333</v>
       </c>
       <c r="N24">
-        <v>5.534913</v>
+        <v>6.569287</v>
       </c>
       <c r="O24">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="P24">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="Q24">
-        <v>56.78857575920966</v>
+        <v>65.69825608541922</v>
       </c>
       <c r="R24">
-        <v>511.0971818328869</v>
+        <v>591.284304768773</v>
       </c>
       <c r="S24">
-        <v>0.006551028263177651</v>
+        <v>0.002046774816393692</v>
       </c>
       <c r="T24">
-        <v>0.006551028263177649</v>
+        <v>0.002046774816393692</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.78019966666666</v>
+        <v>30.00245966666667</v>
       </c>
       <c r="H25">
-        <v>92.340599</v>
+        <v>90.007379</v>
       </c>
       <c r="I25">
-        <v>0.3305945432198133</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="J25">
-        <v>0.3305945432198132</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.6279396666666667</v>
+        <v>0.6918473333333334</v>
       </c>
       <c r="N25">
-        <v>1.883819</v>
+        <v>2.075542</v>
       </c>
       <c r="O25">
-        <v>0.00674438208716629</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="P25">
-        <v>0.006744382087166289</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="Q25">
-        <v>19.32810831862011</v>
+        <v>20.75712171382422</v>
       </c>
       <c r="R25">
-        <v>173.952974867581</v>
+        <v>186.814095424418</v>
       </c>
       <c r="S25">
-        <v>0.002229655915406631</v>
+        <v>0.0006466709546968181</v>
       </c>
       <c r="T25">
-        <v>0.00222965591540663</v>
+        <v>0.0006466709546968179</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.844971</v>
+        <v>2.189762333333333</v>
       </c>
       <c r="H26">
-        <v>5.534913</v>
+        <v>6.569287</v>
       </c>
       <c r="I26">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="J26">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.08855766666665</v>
+        <v>144.2773156666667</v>
       </c>
       <c r="N26">
-        <v>174.265673</v>
+        <v>432.831947</v>
       </c>
       <c r="O26">
-        <v>0.6238997925964108</v>
+        <v>0.8052971554812057</v>
       </c>
       <c r="P26">
-        <v>0.6238997925964107</v>
+        <v>0.8052971554812056</v>
       </c>
       <c r="Q26">
-        <v>107.1717043268276</v>
+        <v>315.9330314013099</v>
       </c>
       <c r="R26">
-        <v>964.5453389414487</v>
+        <v>2843.397282611789</v>
       </c>
       <c r="S26">
-        <v>0.01236313562493432</v>
+        <v>0.009842632222967511</v>
       </c>
       <c r="T26">
-        <v>0.01236313562493432</v>
+        <v>0.00984263222296751</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2090,16 +2090,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.844971</v>
+        <v>2.189762333333333</v>
       </c>
       <c r="H27">
-        <v>5.534913</v>
+        <v>6.569287</v>
       </c>
       <c r="I27">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="J27">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,22 +2114,22 @@
         <v>4.450001</v>
       </c>
       <c r="O27">
-        <v>0.01593173602786259</v>
+        <v>0.0082793637854752</v>
       </c>
       <c r="P27">
-        <v>0.01593173602786259</v>
+        <v>0.008279363785475198</v>
       </c>
       <c r="Q27">
-        <v>2.736707598323667</v>
+        <v>3.248148191031889</v>
       </c>
       <c r="R27">
-        <v>24.630368384913</v>
+        <v>29.233333719287</v>
       </c>
       <c r="S27">
-        <v>0.0003157016809276796</v>
+        <v>0.0001011933697094629</v>
       </c>
       <c r="T27">
-        <v>0.0003157016809276795</v>
+        <v>0.0001011933697094629</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2152,46 +2152,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.844971</v>
+        <v>2.189762333333333</v>
       </c>
       <c r="H28">
-        <v>5.534913</v>
+        <v>6.569287</v>
       </c>
       <c r="I28">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="J28">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2805873333333334</v>
+        <v>0.5156256666666666</v>
       </c>
       <c r="N28">
-        <v>0.8417620000000001</v>
+        <v>1.546877</v>
       </c>
       <c r="O28">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364554</v>
       </c>
       <c r="P28">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364553</v>
       </c>
       <c r="Q28">
-        <v>0.5176754929673334</v>
+        <v>1.129097662966555</v>
       </c>
       <c r="R28">
-        <v>4.659079436706</v>
+        <v>10.161878966699</v>
       </c>
       <c r="S28">
-        <v>5.971811654447841E-05</v>
+        <v>3.517610359100253E-05</v>
       </c>
       <c r="T28">
-        <v>5.971811654447839E-05</v>
+        <v>3.517610359100251E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2214,16 +2214,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.844971</v>
+        <v>2.189762333333333</v>
       </c>
       <c r="H29">
-        <v>5.534913</v>
+        <v>6.569287</v>
       </c>
       <c r="I29">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="J29">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2232,28 +2232,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>30.78019966666666</v>
+        <v>30.00245966666667</v>
       </c>
       <c r="N29">
-        <v>92.340599</v>
+        <v>90.007379</v>
       </c>
       <c r="O29">
-        <v>0.3305945432198133</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="P29">
-        <v>0.3305945432198132</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="Q29">
-        <v>56.78857575920966</v>
+        <v>65.69825608541922</v>
       </c>
       <c r="R29">
-        <v>511.0971818328869</v>
+        <v>591.284304768773</v>
       </c>
       <c r="S29">
-        <v>0.006551028263177651</v>
+        <v>0.002046774816393692</v>
       </c>
       <c r="T29">
-        <v>0.006551028263177649</v>
+        <v>0.002046774816393692</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2276,16 +2276,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.844971</v>
+        <v>2.189762333333333</v>
       </c>
       <c r="H30">
-        <v>5.534913</v>
+        <v>6.569287</v>
       </c>
       <c r="I30">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="J30">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2294,28 +2294,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.844971</v>
+        <v>2.189762333333333</v>
       </c>
       <c r="N30">
-        <v>5.534913</v>
+        <v>6.569287</v>
       </c>
       <c r="O30">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="P30">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="Q30">
-        <v>3.403917990841</v>
+        <v>4.795059076485445</v>
       </c>
       <c r="R30">
-        <v>30.63526191756899</v>
+        <v>43.155531688369</v>
       </c>
       <c r="S30">
-        <v>0.0003926698753300203</v>
+        <v>0.0001493860985915662</v>
       </c>
       <c r="T30">
-        <v>0.0003926698753300202</v>
+        <v>0.0001493860985915662</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2338,16 +2338,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.844971</v>
+        <v>2.189762333333333</v>
       </c>
       <c r="H31">
-        <v>5.534913</v>
+        <v>6.569287</v>
       </c>
       <c r="I31">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="J31">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2356,28 +2356,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.6279396666666667</v>
+        <v>0.6918473333333334</v>
       </c>
       <c r="N31">
-        <v>1.883819</v>
+        <v>2.075542</v>
       </c>
       <c r="O31">
-        <v>0.00674438208716629</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="P31">
-        <v>0.006744382087166289</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="Q31">
-        <v>1.158530474749667</v>
+        <v>1.514981230950444</v>
       </c>
       <c r="R31">
-        <v>10.426774272747</v>
+        <v>13.634831078554</v>
       </c>
       <c r="S31">
-        <v>0.000133645998026405</v>
+        <v>4.719798691135531E-05</v>
       </c>
       <c r="T31">
-        <v>0.000133645998026405</v>
+        <v>4.719798691135529E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2400,16 +2400,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.6279396666666667</v>
+        <v>0.6918473333333334</v>
       </c>
       <c r="H32">
-        <v>1.883819</v>
+        <v>2.075542</v>
       </c>
       <c r="I32">
-        <v>0.00674438208716629</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="J32">
-        <v>0.006744382087166289</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2418,28 +2418,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>58.08855766666665</v>
+        <v>144.2773156666667</v>
       </c>
       <c r="N32">
-        <v>174.265673</v>
+        <v>432.831947</v>
       </c>
       <c r="O32">
-        <v>0.6238997925964108</v>
+        <v>0.8052971554812057</v>
       </c>
       <c r="P32">
-        <v>0.6238997925964107</v>
+        <v>0.8052971554812056</v>
       </c>
       <c r="Q32">
-        <v>36.4761095383541</v>
+        <v>99.81787610447491</v>
       </c>
       <c r="R32">
-        <v>328.2849858451869</v>
+        <v>898.360884940274</v>
       </c>
       <c r="S32">
-        <v>0.004207818585373997</v>
+        <v>0.003109743351039836</v>
       </c>
       <c r="T32">
-        <v>0.004207818585373995</v>
+        <v>0.003109743351039836</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2462,16 +2462,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.6279396666666667</v>
+        <v>0.6918473333333334</v>
       </c>
       <c r="H33">
-        <v>1.883819</v>
+        <v>2.075542</v>
       </c>
       <c r="I33">
-        <v>0.00674438208716629</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="J33">
-        <v>0.006744382087166289</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,22 +2486,22 @@
         <v>4.450001</v>
       </c>
       <c r="O33">
-        <v>0.01593173602786259</v>
+        <v>0.0082793637854752</v>
       </c>
       <c r="P33">
-        <v>0.01593173602786259</v>
+        <v>0.008279363785475198</v>
       </c>
       <c r="Q33">
-        <v>0.9314440482021112</v>
+        <v>1.026240441726889</v>
       </c>
       <c r="R33">
-        <v>8.382996433819001</v>
+        <v>9.236163975542</v>
       </c>
       <c r="S33">
-        <v>0.0001074497150837783</v>
+        <v>3.197167195671586E-05</v>
       </c>
       <c r="T33">
-        <v>0.0001074497150837782</v>
+        <v>3.197167195671584E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2524,46 +2524,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.6279396666666667</v>
+        <v>0.6918473333333334</v>
       </c>
       <c r="H34">
-        <v>1.883819</v>
+        <v>2.075542</v>
       </c>
       <c r="I34">
-        <v>0.00674438208716629</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="J34">
-        <v>0.006744382087166289</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.2805873333333334</v>
+        <v>0.5156256666666666</v>
       </c>
       <c r="N34">
-        <v>0.8417620000000001</v>
+        <v>1.546877</v>
       </c>
       <c r="O34">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364554</v>
       </c>
       <c r="P34">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364553</v>
       </c>
       <c r="Q34">
-        <v>0.1761919165642222</v>
+        <v>0.3567342424815556</v>
       </c>
       <c r="R34">
-        <v>1.585727249078</v>
+        <v>3.210608182334</v>
       </c>
       <c r="S34">
-        <v>2.032518353779053E-05</v>
+        <v>1.111376019946709E-05</v>
       </c>
       <c r="T34">
-        <v>2.032518353779052E-05</v>
+        <v>1.111376019946709E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2586,16 +2586,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.6279396666666667</v>
+        <v>0.6918473333333334</v>
       </c>
       <c r="H35">
-        <v>1.883819</v>
+        <v>2.075542</v>
       </c>
       <c r="I35">
-        <v>0.00674438208716629</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="J35">
-        <v>0.006744382087166289</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2604,28 +2604,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>30.78019966666666</v>
+        <v>30.00245966666667</v>
       </c>
       <c r="N35">
-        <v>92.340599</v>
+        <v>90.007379</v>
       </c>
       <c r="O35">
-        <v>0.3305945432198133</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="P35">
-        <v>0.3305945432198132</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="Q35">
-        <v>19.32810831862011</v>
+        <v>20.75712171382422</v>
       </c>
       <c r="R35">
-        <v>173.952974867581</v>
+        <v>186.814095424418</v>
       </c>
       <c r="S35">
-        <v>0.002229655915406631</v>
+        <v>0.0006466709546968181</v>
       </c>
       <c r="T35">
-        <v>0.00222965591540663</v>
+        <v>0.0006466709546968179</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2648,16 +2648,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.6279396666666667</v>
+        <v>0.6918473333333334</v>
       </c>
       <c r="H36">
-        <v>1.883819</v>
+        <v>2.075542</v>
       </c>
       <c r="I36">
-        <v>0.00674438208716629</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="J36">
-        <v>0.006744382087166289</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2666,28 +2666,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.844971</v>
+        <v>2.189762333333333</v>
       </c>
       <c r="N36">
-        <v>5.534913</v>
+        <v>6.569287</v>
       </c>
       <c r="O36">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="P36">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="Q36">
-        <v>1.158530474749667</v>
+        <v>1.514981230950444</v>
       </c>
       <c r="R36">
-        <v>10.426774272747</v>
+        <v>13.634831078554</v>
       </c>
       <c r="S36">
-        <v>0.000133645998026405</v>
+        <v>4.719798691135531E-05</v>
       </c>
       <c r="T36">
-        <v>0.000133645998026405</v>
+        <v>4.719798691135529E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2710,16 +2710,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.6279396666666667</v>
+        <v>0.6918473333333334</v>
       </c>
       <c r="H37">
-        <v>1.883819</v>
+        <v>2.075542</v>
       </c>
       <c r="I37">
-        <v>0.00674438208716629</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="J37">
-        <v>0.006744382087166289</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2728,28 +2728,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.6279396666666667</v>
+        <v>0.6918473333333334</v>
       </c>
       <c r="N37">
-        <v>1.883819</v>
+        <v>2.075542</v>
       </c>
       <c r="O37">
-        <v>0.00674438208716629</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="P37">
-        <v>0.006744382087166289</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="Q37">
-        <v>0.3943082249734445</v>
+        <v>0.4786527326404445</v>
       </c>
       <c r="R37">
-        <v>3.548774024761</v>
+        <v>4.307874593764</v>
       </c>
       <c r="S37">
-        <v>4.548668973768952E-05</v>
+        <v>1.49120298976081E-05</v>
       </c>
       <c r="T37">
-        <v>4.548668973768951E-05</v>
+        <v>1.491202989760809E-05</v>
       </c>
     </row>
   </sheetData>
